--- a/Excel_Paramterization/src/TESTDATA/TESTSUITE.xlsx
+++ b/Excel_Paramterization/src/TESTDATA/TESTSUITE.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9107"/>
+    <workbookView windowWidth="22188" windowHeight="9107" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GMAIL" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>TCID</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>CHAT</t>
+  </si>
+  <si>
+    <t>ERWEREWREW</t>
+  </si>
+  <si>
+    <t>SDFDSF</t>
   </si>
 </sst>
 </file>
@@ -985,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
@@ -1085,9 +1092,215 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>